--- a/Чек лист для первого модуля по JavaScript _ vladilen.ru .xlsx
+++ b/Чек лист для первого модуля по JavaScript _ vladilen.ru .xlsx
@@ -461,8 +461,8 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -519,7 +519,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="10" t="b">
+      <c r="F3" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -546,10 +546,10 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="14">
       <c r="A6" s="3">
@@ -575,7 +575,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="10" t="b">
+      <c r="F7" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -603,7 +603,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="10" t="b">
+      <c r="F9" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -616,10 +616,10 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="28">
       <c r="A11" s="7">
@@ -630,10 +630,10 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="42">
       <c r="A12" s="3">
@@ -659,7 +659,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="10" t="b">
+      <c r="F13" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -686,10 +686,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="28">
       <c r="A16" s="3">
@@ -713,10 +713,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="28">
@@ -728,10 +728,10 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="14">
       <c r="A19" s="7">
@@ -742,10 +742,10 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="28">
       <c r="A20" s="3">
@@ -755,11 +755,11 @@
         <v>24</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="28">
       <c r="A21" s="7">
@@ -769,11 +769,11 @@
         <v>25</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="D21" s="10"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="14">
       <c r="A22" s="3">
@@ -784,10 +784,10 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="14">
       <c r="A23" s="7">
@@ -798,10 +798,10 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="28">
       <c r="A24" s="3">
@@ -812,10 +812,10 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="42">
       <c r="A25" s="7">
@@ -826,10 +826,10 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="14">
       <c r="A26" s="3"/>
